--- a/unregistered students.xlsx
+++ b/unregistered students.xlsx
@@ -397,119 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>name</v>
-      </c>
-      <c r="B1" t="str">
-        <v>age</v>
-      </c>
-      <c r="C1" t="str">
-        <v>gender</v>
-      </c>
-      <c r="D1" t="str">
-        <v>phone</v>
-      </c>
-      <c r="E1" t="str">
-        <v>grade</v>
-      </c>
-      <c r="F1" t="str">
-        <v>parentName</v>
-      </c>
-      <c r="G1" t="str">
-        <v>parentPhone</v>
-      </c>
-      <c r="H1" t="str">
-        <v>studentPassword</v>
-      </c>
-      <c r="I1" t="str">
-        <v>studentUsername</v>
-      </c>
-      <c r="J1" t="str">
-        <v>parentUsername</v>
-      </c>
-      <c r="K1" t="str">
-        <v>parentPassword</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>Rediet Erbelo</v>
-      </c>
-      <c r="B2">
-        <v>15</v>
-      </c>
-      <c r="C2" t="str">
-        <v>F</v>
-      </c>
-      <c r="D2">
-        <v>251922692328</v>
-      </c>
-      <c r="E2">
-        <v>9</v>
-      </c>
-      <c r="F2" t="str">
-        <v>Betelhem Erbelo</v>
-      </c>
-      <c r="G2">
-        <v>251994288422</v>
-      </c>
-      <c r="H2" t="str">
-        <v>6lzdqc</v>
-      </c>
-      <c r="I2" t="str">
-        <v>redieterbelo2891</v>
-      </c>
-      <c r="J2" t="str">
-        <v>betelhemerbelo1858</v>
-      </c>
-      <c r="K2" t="str">
-        <v>6eqy1e</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>Kalkidan Erbelo</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="str">
-        <v>F</v>
-      </c>
-      <c r="D3">
-        <v>251920864496</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3" t="str">
-        <v>Eyu Erbelo</v>
-      </c>
-      <c r="G3">
-        <v>251917186899</v>
-      </c>
-      <c r="H3" t="str">
-        <v>nbaal3</v>
-      </c>
-      <c r="I3" t="str">
-        <v>kalkidanerbelo1042</v>
-      </c>
-      <c r="J3" t="str">
-        <v>eyuerbelo8953</v>
-      </c>
-      <c r="K3" t="str">
-        <v>b2lnn4</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>